--- a/config_ios提审/active_daily_task_info_config.xlsx
+++ b/config_ios提审/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>游戏分享</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>击杀活动鱼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -208,14 +204,6 @@
   </si>
   <si>
     <t>每日进入捕鱼游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏累计赢金50万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享一次游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -263,14 +251,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_rwbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60,50000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +260,6 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"share_hall",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,6 +296,10 @@
   <si>
     <t>鱼币*10万，金币*10万</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +806,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -840,7 +820,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -854,7 +834,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1110,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>27</v>
@@ -1189,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1206,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>28</v>
@@ -1218,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1226,16 +1206,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>12514</v>
+        <v>12515</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>28</v>
@@ -1244,10 +1224,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1255,28 +1235,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>12515</v>
+        <v>12516</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1284,28 +1264,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>12516</v>
+        <v>12517</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1313,28 +1293,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>12517</v>
+        <v>12518</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1342,58 +1322,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>12518</v>
+        <v>12519</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12">
-        <v>12519</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="9"/>
@@ -1402,10 +1357,6 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C12" s="9"/>
-      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_ios提审/active_daily_task_info_config.xlsx
+++ b/config_ios提审/active_daily_task_info_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>id|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -71,124 +71,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljsj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw_icon_ljyj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gotoui|按钮跳转位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*20000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>福利券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*10</t>
-    </r>
-  </si>
-  <si>
-    <t>累计获得金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与小游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"活跃度","金币"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_15y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_18y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_hytb","ty_icon_jb_30y"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进行捕鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀活动鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀彩金鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单笔充值</t>
@@ -199,107 +83,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rw_icon_mrby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进入捕鱼游戏</t>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljsj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_bh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_ljpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq3","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_hytb",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券","活跃度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔充值6元及以上</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d捕鱼游戏中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>击杀2条活动鱼</t>
-    </r>
+    <t>捕获彩金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3d捕鱼游戏中击杀2条彩金鱼</t>
+    <t>"x30","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw_icon_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x100","x10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x5000","x20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x1万","x30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"x30","x50"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000鱼币，锁定*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，召唤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，1万小游戏币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，10福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万金币，30福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>参与3种不同的游戏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启5个幸运彩贝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔充值大于6元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF191F25"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>*50000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券*20，金币*10万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼币*10万，金币*10万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>进入龙王宝藏任意场1次</t>
+  </si>
+  <si>
+    <t>龙王宝藏中使用任意技能3次</t>
+  </si>
+  <si>
+    <t>龙王宝藏中捕获任意10条鱼</t>
+  </si>
+  <si>
+    <t>龙王宝藏中累计开炮1000次</t>
+  </si>
+  <si>
+    <t>龙王宝藏中累计在线90分钟</t>
+  </si>
+  <si>
+    <t>龙王宝藏中捕获3条彩金鱼</t>
   </si>
 </sst>
 </file>
@@ -416,7 +347,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +387,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +677,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,7 +712,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -792,7 +726,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -806,7 +740,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -820,7 +754,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -834,7 +768,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1090,19 +1024,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="41.75" customWidth="1"/>
-    <col min="6" max="6" width="55.25" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="40.125" customWidth="1"/>
     <col min="9" max="9" width="30.625" customWidth="1"/>
@@ -1135,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1151,25 +1085,25 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1177,28 +1111,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>12513</v>
+        <v>12520</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1206,28 +1140,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>12515</v>
+        <v>12521</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>23</v>
+      <c r="H4" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1235,28 +1169,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>12516</v>
+        <v>12522</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1264,28 +1198,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>12517</v>
+        <v>12523</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1293,28 +1227,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>12518</v>
+        <v>12516</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1325,25 +1259,25 @@
         <v>12519</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1357,6 +1291,27 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_ios提审/active_daily_task_info_config.xlsx
+++ b/config_ios提审/active_daily_task_info_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="active_award_config|总活跃度任务" sheetId="4" r:id="rId1"/>
@@ -191,26 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5000鱼币，锁定*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，召唤*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，1万小游戏币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万鱼币，10福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3万金币，30福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进入游戏</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -231,6 +211,26 @@
   </si>
   <si>
     <t>龙王宝藏中捕获3条彩金鱼</t>
+  </si>
+  <si>
+    <t>2万金币，锁定*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币，10福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万金币，召唤*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万金币，20福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万金币，10万鱼币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,7 +712,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
@@ -726,7 +726,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -740,7 +740,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -754,7 +754,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -768,7 +768,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,13 +1085,13 @@
         <v>12512</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>26</v>
@@ -1120,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>25</v>
@@ -1149,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>25</v>
@@ -1178,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>27</v>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>23</v>
@@ -1236,7 +1236,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>26</v>

--- a/config_ios提审/active_daily_task_info_config.xlsx
+++ b/config_ios提审/active_daily_task_info_config.xlsx
@@ -213,23 +213,23 @@
     <t>龙王宝藏中捕获3条彩金鱼</t>
   </si>
   <si>
-    <t>2万金币，锁定*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币，10福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5万金币，召唤*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万金币，20福利券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万金币，10万鱼币</t>
+    <t>5000鱼币，锁定*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，召唤*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，1万金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万鱼币，10福利券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万金币，30福利券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
